--- a/Code/Results/Cases/Case_2_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.09772498560513</v>
+        <v>16.01868167416557</v>
       </c>
       <c r="C2">
-        <v>18.4809626537597</v>
+        <v>10.48541145433043</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.96063188406662</v>
+        <v>23.09815684862075</v>
       </c>
       <c r="F2">
-        <v>37.22927674124661</v>
+        <v>40.66186628316461</v>
       </c>
       <c r="G2">
-        <v>26.43009830597459</v>
+        <v>27.93917481772626</v>
       </c>
       <c r="H2">
-        <v>8.626881973930145</v>
+        <v>13.83206282455533</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.335887265346978</v>
+        <v>7.843520715174872</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.37685450297312</v>
+        <v>15.28907220859163</v>
       </c>
       <c r="C3">
-        <v>17.27467632843027</v>
+        <v>9.820664496775212</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.69991316595646</v>
+        <v>22.82268482753717</v>
       </c>
       <c r="F3">
-        <v>35.3650994325748</v>
+        <v>40.45422839896959</v>
       </c>
       <c r="G3">
-        <v>25.25834561785683</v>
+        <v>27.99899962343071</v>
       </c>
       <c r="H3">
-        <v>8.653919410221302</v>
+        <v>13.92241251542895</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.410972779142126</v>
+        <v>7.882584870993004</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.26227794901051</v>
+        <v>14.82472780281939</v>
       </c>
       <c r="C4">
-        <v>16.49465424019805</v>
+        <v>9.387368127217611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.89652533028635</v>
+        <v>22.65534676695471</v>
       </c>
       <c r="F4">
-        <v>34.22073151664434</v>
+        <v>40.34092557981001</v>
       </c>
       <c r="G4">
-        <v>24.60367706112988</v>
+        <v>28.05719956661402</v>
       </c>
       <c r="H4">
-        <v>8.689347247322059</v>
+        <v>13.98267214225235</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.461080901635435</v>
+        <v>7.908082756673471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.79333667529551</v>
+        <v>14.63164381326675</v>
       </c>
       <c r="C5">
-        <v>16.16682687544358</v>
+        <v>9.204477715763066</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.56197741506342</v>
+        <v>22.58767544609957</v>
       </c>
       <c r="F5">
-        <v>33.75493973964764</v>
+        <v>40.29835129393474</v>
       </c>
       <c r="G5">
-        <v>24.35320529679553</v>
+        <v>28.08624258526624</v>
       </c>
       <c r="H5">
-        <v>8.70816288767694</v>
+        <v>14.00842393783528</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.48245076663158</v>
+        <v>7.918853559549685</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.7145741702975</v>
+        <v>14.59935739221329</v>
       </c>
       <c r="C6">
-        <v>16.11178815757548</v>
+        <v>9.173727457678595</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.50600086551917</v>
+        <v>22.57647203865888</v>
       </c>
       <c r="F6">
-        <v>33.67764459141403</v>
+        <v>40.29149989413391</v>
       </c>
       <c r="G6">
-        <v>24.31259800514544</v>
+        <v>28.09138458029287</v>
       </c>
       <c r="H6">
-        <v>8.711541447478394</v>
+        <v>14.01277198887845</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.486055088393005</v>
+        <v>7.920665004822725</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.25601355116562</v>
+        <v>14.82213907014601</v>
       </c>
       <c r="C7">
-        <v>16.49027345487131</v>
+        <v>9.384927179631058</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.89204217123712</v>
+        <v>22.65443193339106</v>
       </c>
       <c r="F7">
-        <v>34.21444675279538</v>
+        <v>40.34033680736561</v>
       </c>
       <c r="G7">
-        <v>24.60023312957392</v>
+        <v>28.05756978710582</v>
       </c>
       <c r="H7">
-        <v>8.689583736349025</v>
+        <v>13.98301460949495</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.461365324994293</v>
+        <v>7.908226476148461</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.51629263543945</v>
+        <v>15.77064958674835</v>
       </c>
       <c r="C8">
-        <v>18.07315878465728</v>
+        <v>10.26142441862444</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.53212160298243</v>
+        <v>23.00284030566868</v>
       </c>
       <c r="F8">
-        <v>36.58671646428678</v>
+        <v>40.58734802135282</v>
       </c>
       <c r="G8">
-        <v>26.01267291502542</v>
+        <v>27.95530603271231</v>
       </c>
       <c r="H8">
-        <v>8.63208059596419</v>
+        <v>13.8622177678417</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.36090906001812</v>
+        <v>7.856676097636771</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.4970028543883</v>
+        <v>17.49143836745913</v>
       </c>
       <c r="C9">
-        <v>20.86880159555404</v>
+        <v>11.78089240717212</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.51000710570009</v>
+        <v>23.69740492248516</v>
       </c>
       <c r="F9">
-        <v>41.2251713670537</v>
+        <v>41.18268608717467</v>
       </c>
       <c r="G9">
-        <v>29.291888394351</v>
+        <v>27.92788699940058</v>
       </c>
       <c r="H9">
-        <v>8.684884410757942</v>
+        <v>13.66364235055386</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.198654031374918</v>
+        <v>7.767589564584886</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.15851152486225</v>
+        <v>18.66037325616834</v>
       </c>
       <c r="C10">
-        <v>22.74144917249264</v>
+        <v>12.77616991548096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.54902209296551</v>
+        <v>24.21063094995593</v>
       </c>
       <c r="F10">
-        <v>44.6131277783438</v>
+        <v>41.68512154896077</v>
       </c>
       <c r="G10">
-        <v>32.11293022420906</v>
+        <v>28.01640872249636</v>
       </c>
       <c r="H10">
-        <v>8.846754266042927</v>
+        <v>13.54157731261365</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.105434039481104</v>
+        <v>7.709461206090215</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.31515418270357</v>
+        <v>19.16978066586198</v>
       </c>
       <c r="C11">
-        <v>23.55581633407231</v>
+        <v>13.20280595784114</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.44463951755209</v>
+        <v>24.44390951703856</v>
       </c>
       <c r="F11">
-        <v>46.15030457293197</v>
+        <v>41.92714197303039</v>
       </c>
       <c r="G11">
-        <v>33.50050904032369</v>
+        <v>28.08073035905919</v>
       </c>
       <c r="H11">
-        <v>8.951761625016916</v>
+        <v>13.4913247393187</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.069965258639459</v>
+        <v>7.684609181701783</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.74564024214536</v>
+        <v>19.35935651580592</v>
       </c>
       <c r="C12">
-        <v>23.85897799418657</v>
+        <v>13.3606193063929</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>27.77928422667297</v>
+        <v>24.53214980827171</v>
       </c>
       <c r="F12">
-        <v>46.732015033505</v>
+        <v>42.02065995319459</v>
       </c>
       <c r="G12">
-        <v>34.03351703090545</v>
+        <v>28.10856738056047</v>
       </c>
       <c r="H12">
-        <v>8.996404844127506</v>
+        <v>13.47306274700474</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.057660184639463</v>
+        <v>7.675427391835949</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.65325677255763</v>
+        <v>19.3186774631914</v>
       </c>
       <c r="C13">
-        <v>23.79391593963289</v>
+        <v>13.32679771421153</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>27.7074110132706</v>
+        <v>24.51315110318057</v>
       </c>
       <c r="F13">
-        <v>46.60674574738164</v>
+        <v>42.00043709920149</v>
       </c>
       <c r="G13">
-        <v>33.91838437678211</v>
+        <v>28.10241719788282</v>
       </c>
       <c r="H13">
-        <v>8.986567389732553</v>
+        <v>13.47696151247498</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.060257972671655</v>
+        <v>7.677394657606898</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.35071939168396</v>
+        <v>19.18544441275771</v>
       </c>
       <c r="C14">
-        <v>23.58086120287361</v>
+        <v>13.21586433003767</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.47226057938871</v>
+        <v>24.45117144233807</v>
       </c>
       <c r="F14">
-        <v>46.19816832712647</v>
+        <v>41.93479866475899</v>
       </c>
       <c r="G14">
-        <v>33.54420716087665</v>
+        <v>28.08295070603937</v>
       </c>
       <c r="H14">
-        <v>8.955334597032612</v>
+        <v>13.48980687942273</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.068929541094939</v>
+        <v>7.68384919593728</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.16443700895908</v>
+        <v>19.10339921228105</v>
       </c>
       <c r="C15">
-        <v>23.44968454137389</v>
+        <v>13.14742715883109</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.32764071775123</v>
+        <v>24.4131924000553</v>
       </c>
       <c r="F15">
-        <v>45.94786096545541</v>
+        <v>41.89483475129563</v>
       </c>
       <c r="G15">
-        <v>33.31600363107594</v>
+        <v>28.07148052648617</v>
       </c>
       <c r="H15">
-        <v>8.936849746441045</v>
+        <v>13.49777526479287</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.074391914899026</v>
+        <v>7.687832638357466</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.08185612641957</v>
+        <v>18.62662257534182</v>
       </c>
       <c r="C16">
-        <v>22.68748778399225</v>
+        <v>12.7477635968653</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.48985498185377</v>
+        <v>24.19537580930289</v>
       </c>
       <c r="F16">
-        <v>44.51260193081814</v>
+        <v>41.66957030610286</v>
       </c>
       <c r="G16">
-        <v>32.02329744766089</v>
+        <v>28.0126912094733</v>
       </c>
       <c r="H16">
-        <v>8.840554795362294</v>
+        <v>13.54496835626648</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.107902192972562</v>
+        <v>7.711117387240453</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.40405678954215</v>
+        <v>18.32832593770138</v>
       </c>
       <c r="C17">
-        <v>22.21041313407279</v>
+        <v>12.49590065756773</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.96776630419945</v>
+        <v>24.06165344117542</v>
       </c>
       <c r="F17">
-        <v>43.63117865453297</v>
+        <v>41.53478021629261</v>
       </c>
       <c r="G17">
-        <v>31.24357194777849</v>
+        <v>27.98280486117816</v>
       </c>
       <c r="H17">
-        <v>8.789781596198406</v>
+        <v>13.57527730750611</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.13032244759434</v>
+        <v>7.725809535328473</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.00909566689104</v>
+        <v>18.1546555921016</v>
       </c>
       <c r="C18">
-        <v>21.93247019568459</v>
+        <v>12.3485763549886</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.66446006718489</v>
+        <v>23.98472603520497</v>
       </c>
       <c r="F18">
-        <v>43.12380836784731</v>
+        <v>41.45852366850796</v>
       </c>
       <c r="G18">
-        <v>30.79996341040048</v>
+        <v>27.96787841741376</v>
       </c>
       <c r="H18">
-        <v>8.763509784316913</v>
+        <v>13.59320622137358</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.143862249144827</v>
+        <v>7.734409785278364</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.87448340428643</v>
+        <v>18.09549719809935</v>
       </c>
       <c r="C19">
-        <v>21.83775023185585</v>
+        <v>12.29827214083556</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.56124616097256</v>
+        <v>23.95867951265974</v>
       </c>
       <c r="F19">
-        <v>42.95194947160955</v>
+        <v>41.43292475027921</v>
       </c>
       <c r="G19">
-        <v>30.650601283708</v>
+        <v>27.96321249492444</v>
       </c>
       <c r="H19">
-        <v>8.755106697346941</v>
+        <v>13.5993615611435</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.148553616711246</v>
+        <v>7.737347385103273</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.47673657286597</v>
+        <v>18.3602981333722</v>
       </c>
       <c r="C20">
-        <v>22.26156397540384</v>
+        <v>12.52296635574338</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.02365506267938</v>
+        <v>24.07589035819327</v>
       </c>
       <c r="F20">
-        <v>43.72504801829354</v>
+        <v>41.54899775246888</v>
       </c>
       <c r="G20">
-        <v>31.32607099076611</v>
+        <v>27.98575187374879</v>
       </c>
       <c r="H20">
-        <v>8.794880378168157</v>
+        <v>13.57199946859161</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.127868219700543</v>
+        <v>7.724230033630294</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.43978347790491</v>
+        <v>19.22466924852744</v>
       </c>
       <c r="C21">
-        <v>23.6435807644332</v>
+        <v>13.24854967805869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.54145132511231</v>
+        <v>24.46937955921433</v>
       </c>
       <c r="F21">
-        <v>46.31818559663425</v>
+        <v>41.95402805386085</v>
       </c>
       <c r="G21">
-        <v>33.65390515790833</v>
+        <v>28.08857393299887</v>
       </c>
       <c r="H21">
-        <v>8.964373130822638</v>
+        <v>13.4860129804016</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.066350811844774</v>
+        <v>7.681947119874483</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.67912302572595</v>
+        <v>19.77016181164334</v>
       </c>
       <c r="C22">
-        <v>24.51647095095124</v>
+        <v>13.7009410335817</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.5072285414633</v>
+        <v>24.72594945989663</v>
       </c>
       <c r="F22">
-        <v>48.01090338175329</v>
+        <v>42.22960572760346</v>
       </c>
       <c r="G22">
-        <v>35.21953707120624</v>
+        <v>28.17605895524588</v>
       </c>
       <c r="H22">
-        <v>9.103748787831002</v>
+        <v>13.43429401595087</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.032782978625284</v>
+        <v>7.655648545544993</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.02155963480664</v>
+        <v>19.48083178748002</v>
       </c>
       <c r="C23">
-        <v>24.05330576284037</v>
+        <v>13.4614835336089</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>27.99413012430434</v>
+        <v>24.58909066013836</v>
       </c>
       <c r="F23">
-        <v>47.10755272513708</v>
+        <v>42.08155316070699</v>
       </c>
       <c r="G23">
-        <v>34.37979918493826</v>
+        <v>28.12750642274441</v>
       </c>
       <c r="H23">
-        <v>9.026625677142741</v>
+        <v>13.46148466578133</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.050044126718174</v>
+        <v>7.669562237379557</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.44389452516957</v>
+        <v>18.34585027162527</v>
       </c>
       <c r="C24">
-        <v>22.23845011266858</v>
+        <v>12.51073781920966</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.99839757403067</v>
+        <v>24.06945399419484</v>
       </c>
       <c r="F24">
-        <v>43.68261164867015</v>
+        <v>41.54256614917811</v>
       </c>
       <c r="G24">
-        <v>31.28875864472648</v>
+        <v>27.98441250509249</v>
       </c>
       <c r="H24">
-        <v>8.79256615678163</v>
+        <v>13.57347981061763</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.128975760715701</v>
+        <v>7.724943648116082</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.46726523790081</v>
+        <v>17.04201332252383</v>
       </c>
       <c r="C25">
-        <v>20.14489751777806</v>
+        <v>11.391141466106</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.73049414833745</v>
+        <v>23.5087051375807</v>
       </c>
       <c r="F25">
-        <v>39.9734730061579</v>
+        <v>41.00999815102056</v>
       </c>
       <c r="G25">
-        <v>28.35100652865635</v>
+        <v>27.91640966336871</v>
       </c>
       <c r="H25">
-        <v>8.650581599973426</v>
+        <v>13.71321251958932</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.238375677340786</v>
+        <v>7.790404278016623</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.01868167416557</v>
+        <v>25.09772498560511</v>
       </c>
       <c r="C2">
-        <v>10.48541145433043</v>
+        <v>18.48096265375976</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.09815684862075</v>
+        <v>21.96063188406669</v>
       </c>
       <c r="F2">
-        <v>40.66186628316461</v>
+        <v>37.22927674124664</v>
       </c>
       <c r="G2">
-        <v>27.93917481772626</v>
+        <v>26.43009830597451</v>
       </c>
       <c r="H2">
-        <v>13.83206282455533</v>
+        <v>8.626881973930246</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.843520715174872</v>
+        <v>4.335887265347006</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.28907220859163</v>
+        <v>23.37685450297309</v>
       </c>
       <c r="C3">
-        <v>9.820664496775212</v>
+        <v>17.27467632843023</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.82268482753717</v>
+        <v>20.6999131659565</v>
       </c>
       <c r="F3">
-        <v>40.45422839896959</v>
+        <v>35.36509943257482</v>
       </c>
       <c r="G3">
-        <v>27.99899962343071</v>
+        <v>25.25834561785674</v>
       </c>
       <c r="H3">
-        <v>13.92241251542895</v>
+        <v>8.65391941022132</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.882584870993004</v>
+        <v>4.410972779142039</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.82472780281939</v>
+        <v>22.26227794901053</v>
       </c>
       <c r="C4">
-        <v>9.387368127217611</v>
+        <v>16.4946542401981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.65534676695471</v>
+        <v>19.89652533028639</v>
       </c>
       <c r="F4">
-        <v>40.34092557981001</v>
+        <v>34.22073151664438</v>
       </c>
       <c r="G4">
-        <v>28.05719956661402</v>
+        <v>24.6036770611299</v>
       </c>
       <c r="H4">
-        <v>13.98267214225235</v>
+        <v>8.689347247321971</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.908082756673471</v>
+        <v>4.461080901635403</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.63164381326675</v>
+        <v>21.79333667529549</v>
       </c>
       <c r="C5">
-        <v>9.204477715763066</v>
+        <v>16.1668268754435</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.58767544609957</v>
+        <v>19.56197741506339</v>
       </c>
       <c r="F5">
-        <v>40.29835129393474</v>
+        <v>33.75493973964769</v>
       </c>
       <c r="G5">
-        <v>28.08624258526624</v>
+        <v>24.35320529679566</v>
       </c>
       <c r="H5">
-        <v>14.00842393783528</v>
+        <v>8.708162887676995</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.918853559549685</v>
+        <v>4.482450766631587</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.59935739221329</v>
+        <v>21.71457417029755</v>
       </c>
       <c r="C6">
-        <v>9.173727457678595</v>
+        <v>16.1117881575755</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.57647203865888</v>
+        <v>19.50600086551915</v>
       </c>
       <c r="F6">
-        <v>40.29149989413391</v>
+        <v>33.67764459141389</v>
       </c>
       <c r="G6">
-        <v>28.09138458029287</v>
+        <v>24.31259800514518</v>
       </c>
       <c r="H6">
-        <v>14.01277198887845</v>
+        <v>8.71154144747827</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.920665004822725</v>
+        <v>4.486055088392974</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.82213907014601</v>
+        <v>22.25601355116562</v>
       </c>
       <c r="C7">
-        <v>9.384927179631058</v>
+        <v>16.49027345487122</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.65443193339106</v>
+        <v>19.89204217123712</v>
       </c>
       <c r="F7">
-        <v>40.34033680736561</v>
+        <v>34.21444675279535</v>
       </c>
       <c r="G7">
-        <v>28.05756978710582</v>
+        <v>24.60023312957396</v>
       </c>
       <c r="H7">
-        <v>13.98301460949495</v>
+        <v>8.689583736348991</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.908226476148461</v>
+        <v>4.461365324994384</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.77064958674835</v>
+        <v>24.51629263543946</v>
       </c>
       <c r="C8">
-        <v>10.26142441862444</v>
+        <v>18.07315878465732</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.00284030566868</v>
+        <v>21.53212160298247</v>
       </c>
       <c r="F8">
-        <v>40.58734802135282</v>
+        <v>36.58671646428671</v>
       </c>
       <c r="G8">
-        <v>27.95530603271231</v>
+        <v>26.01267291502525</v>
       </c>
       <c r="H8">
-        <v>13.8622177678417</v>
+        <v>8.632080595964165</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.856676097636771</v>
+        <v>4.360909060018114</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.49143836745913</v>
+        <v>28.49700285438823</v>
       </c>
       <c r="C9">
-        <v>11.78089240717212</v>
+        <v>20.86880159555401</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>23.69740492248516</v>
+        <v>24.51000710570007</v>
       </c>
       <c r="F9">
-        <v>41.18268608717467</v>
+        <v>41.22517136705372</v>
       </c>
       <c r="G9">
-        <v>27.92788699940058</v>
+        <v>29.29188839435102</v>
       </c>
       <c r="H9">
-        <v>13.66364235055386</v>
+        <v>8.684884410758032</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.767589564584886</v>
+        <v>4.198654031374998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.66037325616834</v>
+        <v>31.15851152486228</v>
       </c>
       <c r="C10">
-        <v>12.77616991548096</v>
+        <v>22.7414491724927</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>24.21063094995593</v>
+        <v>26.54902209296552</v>
       </c>
       <c r="F10">
-        <v>41.68512154896077</v>
+        <v>44.61312777834377</v>
       </c>
       <c r="G10">
-        <v>28.01640872249636</v>
+        <v>32.11293022420897</v>
       </c>
       <c r="H10">
-        <v>13.54157731261365</v>
+        <v>8.846754266042865</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.709461206090215</v>
+        <v>4.105434039481066</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.16978066586198</v>
+        <v>32.31515418270358</v>
       </c>
       <c r="C11">
-        <v>13.20280595784114</v>
+        <v>23.55581633407223</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>24.44390951703856</v>
+        <v>27.44463951755205</v>
       </c>
       <c r="F11">
-        <v>41.92714197303039</v>
+        <v>46.15030457293194</v>
       </c>
       <c r="G11">
-        <v>28.08073035905919</v>
+        <v>33.50050904032366</v>
       </c>
       <c r="H11">
-        <v>13.4913247393187</v>
+        <v>8.951761625016948</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.684609181701783</v>
+        <v>4.069965258639498</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.35935651580592</v>
+        <v>32.74564024214525</v>
       </c>
       <c r="C12">
-        <v>13.3606193063929</v>
+        <v>23.85897799418652</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.53214980827171</v>
+        <v>27.77928422667293</v>
       </c>
       <c r="F12">
-        <v>42.02065995319459</v>
+        <v>46.73201503350497</v>
       </c>
       <c r="G12">
-        <v>28.10856738056047</v>
+        <v>34.03351703090537</v>
       </c>
       <c r="H12">
-        <v>13.47306274700474</v>
+        <v>8.996404844127582</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.675427391835949</v>
+        <v>4.057660184639544</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.3186774631914</v>
+        <v>32.65325677255756</v>
       </c>
       <c r="C13">
-        <v>13.32679771421153</v>
+        <v>23.79391593963293</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>24.51315110318057</v>
+        <v>27.70741101327057</v>
       </c>
       <c r="F13">
-        <v>42.00043709920149</v>
+        <v>46.60674574738168</v>
       </c>
       <c r="G13">
-        <v>28.10241719788282</v>
+        <v>33.9183843767822</v>
       </c>
       <c r="H13">
-        <v>13.47696151247498</v>
+        <v>8.986567389732601</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.677394657606898</v>
+        <v>4.060257972671672</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.18544441275771</v>
+        <v>32.35071939168407</v>
       </c>
       <c r="C14">
-        <v>13.21586433003767</v>
+        <v>23.58086120287366</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>24.45117144233807</v>
+        <v>27.47226057938876</v>
       </c>
       <c r="F14">
-        <v>41.93479866475899</v>
+        <v>46.19816832712662</v>
       </c>
       <c r="G14">
-        <v>28.08295070603937</v>
+        <v>33.54420716087693</v>
       </c>
       <c r="H14">
-        <v>13.48980687942273</v>
+        <v>8.955334597032577</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.68384919593728</v>
+        <v>4.068929541094885</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.10339921228105</v>
+        <v>32.16443700895906</v>
       </c>
       <c r="C15">
-        <v>13.14742715883109</v>
+        <v>23.44968454137389</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>24.4131924000553</v>
+        <v>27.32764071775129</v>
       </c>
       <c r="F15">
-        <v>41.89483475129563</v>
+        <v>45.94786096545533</v>
       </c>
       <c r="G15">
-        <v>28.07148052648617</v>
+        <v>33.3160036310757</v>
       </c>
       <c r="H15">
-        <v>13.49777526479287</v>
+        <v>8.936849746441023</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.687832638357466</v>
+        <v>4.074391914899002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.62662257534182</v>
+        <v>31.08185612641958</v>
       </c>
       <c r="C16">
-        <v>12.7477635968653</v>
+        <v>22.68748778399227</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.19537580930289</v>
+        <v>26.48985498185376</v>
       </c>
       <c r="F16">
-        <v>41.66957030610286</v>
+        <v>44.51260193081815</v>
       </c>
       <c r="G16">
-        <v>28.0126912094733</v>
+        <v>32.02329744766105</v>
       </c>
       <c r="H16">
-        <v>13.54496835626648</v>
+        <v>8.840554795362301</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.711117387240453</v>
+        <v>4.107902192972531</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.32832593770138</v>
+        <v>30.40405678954211</v>
       </c>
       <c r="C17">
-        <v>12.49590065756773</v>
+        <v>22.21041313407281</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.06165344117542</v>
+        <v>25.96776630419944</v>
       </c>
       <c r="F17">
-        <v>41.53478021629261</v>
+        <v>43.63117865453295</v>
       </c>
       <c r="G17">
-        <v>27.98280486117816</v>
+        <v>31.24357194777849</v>
       </c>
       <c r="H17">
-        <v>13.57527730750611</v>
+        <v>8.789781596198429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.725809535328473</v>
+        <v>4.130322447594342</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.1546555921016</v>
+        <v>30.00909566689107</v>
       </c>
       <c r="C18">
-        <v>12.3485763549886</v>
+        <v>21.93247019568446</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.98472603520497</v>
+        <v>25.66446006718489</v>
       </c>
       <c r="F18">
-        <v>41.45852366850796</v>
+        <v>43.12380836784733</v>
       </c>
       <c r="G18">
-        <v>27.96787841741376</v>
+        <v>30.7999634104005</v>
       </c>
       <c r="H18">
-        <v>13.59320622137358</v>
+        <v>8.763509784316904</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.734409785278364</v>
+        <v>4.143862249144804</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.09549719809935</v>
+        <v>29.87448340428647</v>
       </c>
       <c r="C19">
-        <v>12.29827214083556</v>
+        <v>21.83775023185582</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.95867951265974</v>
+        <v>25.5612461609726</v>
       </c>
       <c r="F19">
-        <v>41.43292475027921</v>
+        <v>42.95194947160955</v>
       </c>
       <c r="G19">
-        <v>27.96321249492444</v>
+        <v>30.65060128370795</v>
       </c>
       <c r="H19">
-        <v>13.5993615611435</v>
+        <v>8.755106697346895</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.737347385103273</v>
+        <v>4.148553616711266</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.3602981333722</v>
+        <v>30.47673657286594</v>
       </c>
       <c r="C20">
-        <v>12.52296635574338</v>
+        <v>22.26156397540377</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.07589035819327</v>
+        <v>26.02365506267939</v>
       </c>
       <c r="F20">
-        <v>41.54899775246888</v>
+        <v>43.72504801829356</v>
       </c>
       <c r="G20">
-        <v>27.98575187374879</v>
+        <v>31.32607099076607</v>
       </c>
       <c r="H20">
-        <v>13.57199946859161</v>
+        <v>8.794880378168173</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.724230033630294</v>
+        <v>4.127868219700648</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.22466924852744</v>
+        <v>32.4397834779049</v>
       </c>
       <c r="C21">
-        <v>13.24854967805869</v>
+        <v>23.64358076443318</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>24.46937955921433</v>
+        <v>27.54145132511228</v>
       </c>
       <c r="F21">
-        <v>41.95402805386085</v>
+        <v>46.31818559663427</v>
       </c>
       <c r="G21">
-        <v>28.08857393299887</v>
+        <v>33.65390515790852</v>
       </c>
       <c r="H21">
-        <v>13.4860129804016</v>
+        <v>8.964373130822693</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.681947119874483</v>
+        <v>4.066350811844762</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.77016181164334</v>
+        <v>33.67912302572586</v>
       </c>
       <c r="C22">
-        <v>13.7009410335817</v>
+        <v>24.51647095095121</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>24.72594945989663</v>
+        <v>28.50722854146329</v>
       </c>
       <c r="F22">
-        <v>42.22960572760346</v>
+        <v>48.01090338175329</v>
       </c>
       <c r="G22">
-        <v>28.17605895524588</v>
+        <v>35.21953707120613</v>
       </c>
       <c r="H22">
-        <v>13.43429401595087</v>
+        <v>9.103748787831027</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.655648545544993</v>
+        <v>4.032782978625303</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.48083178748002</v>
+        <v>33.02155963480671</v>
       </c>
       <c r="C23">
-        <v>13.4614835336089</v>
+        <v>24.05330576284037</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>24.58909066013836</v>
+        <v>27.99413012430439</v>
       </c>
       <c r="F23">
-        <v>42.08155316070699</v>
+        <v>47.10755272513713</v>
       </c>
       <c r="G23">
-        <v>28.12750642274441</v>
+        <v>34.37979918493841</v>
       </c>
       <c r="H23">
-        <v>13.46148466578133</v>
+        <v>9.026625677142693</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.669562237379557</v>
+        <v>4.05004412671813</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.34585027162527</v>
+        <v>30.44389452516964</v>
       </c>
       <c r="C24">
-        <v>12.51073781920966</v>
+        <v>22.23845011266855</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.06945399419484</v>
+        <v>25.99839757403071</v>
       </c>
       <c r="F24">
-        <v>41.54256614917811</v>
+        <v>43.68261164867015</v>
       </c>
       <c r="G24">
-        <v>27.98441250509249</v>
+        <v>31.28875864472648</v>
       </c>
       <c r="H24">
-        <v>13.57347981061763</v>
+        <v>8.792566156781593</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.724943648116082</v>
+        <v>4.128975760715655</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.04201332252383</v>
+        <v>27.46726523790082</v>
       </c>
       <c r="C25">
-        <v>11.391141466106</v>
+        <v>20.14489751777803</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.5087051375807</v>
+        <v>23.73049414833742</v>
       </c>
       <c r="F25">
-        <v>41.00999815102056</v>
+        <v>39.97347300615796</v>
       </c>
       <c r="G25">
-        <v>27.91640966336871</v>
+        <v>28.35100652865653</v>
       </c>
       <c r="H25">
-        <v>13.71321251958932</v>
+        <v>8.650581599973437</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.790404278016623</v>
+        <v>4.23837567734077</v>
       </c>
       <c r="K25">
         <v>0</v>
